--- a/doc/Metricas/Metricas.xlsx
+++ b/doc/Metricas/Metricas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>iteracion 1</t>
   </si>
@@ -56,14 +56,14 @@
   <si>
     <t>inicio</t>
   </si>
+  <si>
+    <t>LCOM Lack of Cohesion of Methods</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -161,14 +161,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -178,7 +177,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,25 +268,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="43240832"/>
-        <c:axId val="113786880"/>
+        <c:axId val="90383104"/>
+        <c:axId val="90384640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43240832"/>
+        <c:axId val="90383104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113786880"/>
+        <c:crossAx val="90384640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113786880"/>
+        <c:axId val="90384640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -293,7 +294,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43240832"/>
+        <c:crossAx val="90383104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -306,7 +307,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -376,24 +377,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="126358272"/>
-        <c:axId val="126375040"/>
+        <c:axId val="90429696"/>
+        <c:axId val="90701824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126358272"/>
+        <c:axId val="90429696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126375040"/>
+        <c:crossAx val="90701824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126375040"/>
+        <c:axId val="90701824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,7 +402,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126358272"/>
+        <c:crossAx val="90429696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -414,7 +415,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -465,7 +466,7 @@
             <c:numRef>
               <c:f>Hoja1!$D$28:$G$28</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
@@ -476,7 +477,7 @@
                 <c:pt idx="2">
                   <c:v>1.6373333333333333</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="3">
                   <c:v>1.681</c:v>
                 </c:pt>
               </c:numCache>
@@ -484,24 +485,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72569984"/>
-        <c:axId val="72575616"/>
+        <c:axId val="90725760"/>
+        <c:axId val="90731648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72569984"/>
+        <c:axId val="90725760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72575616"/>
+        <c:crossAx val="90731648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72575616"/>
+        <c:axId val="90731648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,7 +510,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72569984"/>
+        <c:crossAx val="90725760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -522,7 +523,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -532,9 +533,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -591,25 +589,73 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MLOC</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iteracion 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iteracion 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iteracion 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110258432"/>
-        <c:axId val="113974272"/>
+        <c:axId val="90755840"/>
+        <c:axId val="90757376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110258432"/>
+        <c:axId val="90755840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113974272"/>
+        <c:crossAx val="90757376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113974272"/>
+        <c:axId val="90757376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,7 +663,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110258432"/>
+        <c:crossAx val="90755840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -630,7 +676,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -644,25 +690,19 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.6266185476815402E-2"/>
-          <c:y val="2.8252405949256341E-2"/>
-          <c:w val="0.6878864829396325"/>
-          <c:h val="0.8326195683872849"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>MLOC</c:v>
+            <c:v>LCOM</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$D$4:$G$4</c:f>
@@ -685,45 +725,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$18:$G$18</c:f>
+              <c:f>Hoja1!$D$33:$G$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2177</c:v>
+                  <c:v>0.17100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3812</c:v>
+                  <c:v>0.19366666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4894</c:v>
+                  <c:v>0.2213333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109083648"/>
-        <c:axId val="109097728"/>
+        <c:axId val="90799104"/>
+        <c:axId val="90813184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109083648"/>
+        <c:axId val="90799104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109097728"/>
+        <c:crossAx val="90813184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109097728"/>
+        <c:axId val="90813184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,7 +771,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109083648"/>
+        <c:crossAx val="90799104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -744,7 +784,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -784,16 +824,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -844,16 +884,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -875,19 +915,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="13 Gráfico"/>
+        <xdr:cNvPr id="8" name="7 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1190,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:G28"/>
+  <dimension ref="B4:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1217,7 +1257,7 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1235,7 +1275,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="3"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1291,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="3"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1267,28 +1307,28 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>E5+E2+E7</f>
         <v>101</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" ref="F8:G8" si="0">F5+F2+F7</f>
         <v>132</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1306,7 +1346,7 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="3"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1362,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="3"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1338,28 +1378,28 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f>E10+E11+E12</f>
         <v>312</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" ref="F13:G13" si="1">F10+F11+F12</f>
         <v>502</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1377,7 +1417,7 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="3"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1393,7 +1433,7 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="3"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1409,28 +1449,28 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f>SUM(E15:E17)</f>
         <v>2177</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f t="shared" ref="F18" si="2">SUM(F15:F17)</f>
         <v>3812</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f>SUM(G15:G17)</f>
         <v>4894</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1448,7 +1488,7 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="3"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1504,7 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="3"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1480,99 +1520,171 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <f>SUM(E20:E22)</f>
         <v>6382</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <f t="shared" ref="F23:G23" si="3">SUM(F20:F22)</f>
         <v>9613</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f t="shared" si="3"/>
         <v>11527</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>1.589</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>1.5960000000000001</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <v>1.63</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>1.615</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>1.585</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="4">
         <v>1.569</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <v>1.5589999999999999</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="4">
         <v>1.7310000000000001</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="4">
         <v>1.8440000000000001</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="7"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>0</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="5">
         <f>AVERAGE(E25:E27)</f>
         <v>1.5876666666666666</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="5">
         <f t="shared" ref="F28:G28" si="4">AVERAGE(F25:F27)</f>
         <v>1.6373333333333333</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <f t="shared" si="4"/>
         <v>1.681</v>
       </c>
     </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="7"/>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="7"/>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="8"/>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <f>AVERAGE(E30:E32)</f>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" ref="F33:G33" si="5">AVERAGE(F30:F32)</f>
+        <v>0.19366666666666665</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="5"/>
+        <v>0.2213333333333333</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B25:B28"/>

--- a/doc/Metricas/Metricas.xlsx
+++ b/doc/Metricas/Metricas.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -268,25 +268,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90383104"/>
-        <c:axId val="90384640"/>
+        <c:axId val="161596544"/>
+        <c:axId val="161598080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90383104"/>
+        <c:axId val="161596544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90384640"/>
+        <c:crossAx val="161598080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90384640"/>
+        <c:axId val="161598080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -294,7 +294,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90383104"/>
+        <c:crossAx val="161596544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -307,7 +307,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -317,9 +317,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -377,24 +375,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90429696"/>
-        <c:axId val="90701824"/>
+        <c:axId val="157630464"/>
+        <c:axId val="157632000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90429696"/>
+        <c:axId val="157630464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90701824"/>
+        <c:crossAx val="157632000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90701824"/>
+        <c:axId val="157632000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,20 +400,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90429696"/>
+        <c:crossAx val="157630464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -485,24 +482,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90725760"/>
-        <c:axId val="90731648"/>
+        <c:axId val="157639808"/>
+        <c:axId val="157641344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90725760"/>
+        <c:axId val="157639808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90731648"/>
+        <c:crossAx val="157641344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90731648"/>
+        <c:axId val="157641344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,7 +507,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90725760"/>
+        <c:crossAx val="157639808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -523,7 +520,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -638,24 +635,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90755840"/>
-        <c:axId val="90757376"/>
+        <c:axId val="157649920"/>
+        <c:axId val="157651712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90755840"/>
+        <c:axId val="157649920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90757376"/>
+        <c:crossAx val="157651712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90757376"/>
+        <c:axId val="157651712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,20 +660,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90755840"/>
+        <c:crossAx val="157649920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -686,9 +682,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -746,24 +740,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90799104"/>
-        <c:axId val="90813184"/>
+        <c:axId val="157667328"/>
+        <c:axId val="157668864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90799104"/>
+        <c:axId val="157667328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90813184"/>
+        <c:crossAx val="157668864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90813184"/>
+        <c:axId val="157668864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +765,263 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90799104"/>
+        <c:crossAx val="157667328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>NOC Movil</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iteracion 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iteracion 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iteracion 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>NOC Web</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iteracion 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iteracion 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iteracion 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>NOC EJB</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iteracion 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iteracion 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iteracion 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>NOC</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iteracion 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iteracion 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iteracion 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="162498816"/>
+        <c:axId val="162505856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="162498816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="162505856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="162505856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="162498816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -784,7 +1034,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -937,6 +1187,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="8 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1232,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1263,7 +1543,9 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
       <c r="E5" s="2">
         <v>78</v>
       </c>
@@ -1279,7 +1561,9 @@
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
       <c r="E6" s="2">
         <v>6</v>
       </c>
@@ -1295,7 +1579,9 @@
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
       <c r="E7" s="2">
         <v>23</v>
       </c>

--- a/doc/Metricas/Metricas.xlsx
+++ b/doc/Metricas/Metricas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>iteracion 1</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>LCOM Lack of Cohesion of Methods</t>
+  </si>
+  <si>
+    <t>DIT Depth of Inheritance Tree</t>
+  </si>
+  <si>
+    <t>Promedio de Métodos por clase</t>
   </si>
 </sst>
 </file>
@@ -161,13 +167,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -180,6 +189,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,13 +269,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -317,7 +331,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -407,6 +423,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -461,7 +478,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$28:$G$28</c:f>
+              <c:f>Hoja1!$D$32:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -566,7 +583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$23:$G$23</c:f>
+              <c:f>Hoja1!$D$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -614,7 +631,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$18:$G$18</c:f>
+              <c:f>Hoja1!$D$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -667,6 +684,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -682,7 +700,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -719,7 +739,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$33:$G$33</c:f>
+              <c:f>Hoja1!$D$37:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -772,6 +792,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -983,13 +1004,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,6 +1061,221 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DIT</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iteracion 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iteracion 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iteracion 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7063333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8516666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="167096704"/>
+        <c:axId val="167099008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="167096704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167099008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="167099008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167096704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Metodos por Clase</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iteracion 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iteracion 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iteracion 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9158878504672896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.63768115942029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.072847682119205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="167100416"/>
+        <c:axId val="167505920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="167100416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167505920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="167505920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167100416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1050,10 +1286,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1074,16 +1310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1106,13 +1342,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1134,15 +1370,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1165,15 +1401,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1200,10 +1436,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1217,6 +1453,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="9 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="13 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1510,20 +1806,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:G33"/>
+  <dimension ref="B4:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="15.75">
-      <c r="D4" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1537,7 +1834,7 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1557,7 +1854,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="9"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1575,7 +1872,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1890,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1601,20 +1898,20 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <f>E5+E2+E7</f>
-        <v>101</v>
+        <f>SUM(E5:E7)</f>
+        <v>107</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ref="F8:G8" si="0">F5+F2+F7</f>
-        <v>132</v>
+        <f t="shared" ref="F8:G8" si="0">SUM(F5:F7)</f>
+        <v>138</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1632,7 +1929,7 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1648,7 +1945,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1664,7 +1961,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1684,298 +1981,417 @@
         <v>615</v>
       </c>
     </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <f>E13/E8</f>
+        <v>2.9158878504672896</v>
+      </c>
+      <c r="F16" s="4">
+        <f>F13/F8</f>
+        <v>3.63768115942029</v>
+      </c>
+      <c r="G16" s="4">
+        <f>G13/G8</f>
+        <v>4.072847682119205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
         <v>1431</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F19" s="2">
         <v>2613</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G19" s="2">
         <v>3360</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="9"/>
-      <c r="C16" s="2" t="s">
+    <row r="20" spans="2:7">
+      <c r="B20" s="10"/>
+      <c r="C20" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>93</v>
-      </c>
-      <c r="F16" s="2">
-        <v>159</v>
-      </c>
-      <c r="G16" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="9"/>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>653</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1040</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="9"/>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <f>SUM(E15:E17)</f>
-        <v>2177</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" ref="F18" si="2">SUM(F15:F17)</f>
-        <v>3812</v>
-      </c>
-      <c r="G18" s="3">
-        <f>SUM(G15:G17)</f>
-        <v>4894</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <v>4804</v>
+        <v>93</v>
       </c>
       <c r="F20" s="2">
-        <v>7289</v>
+        <v>159</v>
       </c>
       <c r="G20" s="2">
-        <v>8713</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="9"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
+        <v>653</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1040</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="10"/>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <f>SUM(E19:E21)</f>
+        <v>2177</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" ref="F22" si="2">SUM(F19:F21)</f>
+        <v>3812</v>
+      </c>
+      <c r="G22" s="3">
+        <f>SUM(G19:G21)</f>
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>4804</v>
+      </c>
+      <c r="F24" s="2">
+        <v>7289</v>
+      </c>
+      <c r="G24" s="2">
+        <v>8713</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="10"/>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
         <v>346</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F25" s="2">
         <v>523</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G25" s="2">
         <v>637</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="9"/>
-      <c r="C22" s="2" t="s">
+    <row r="26" spans="2:7">
+      <c r="B26" s="10"/>
+      <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
         <v>1232</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F26" s="2">
         <v>1801</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G26" s="2">
         <v>2177</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="9"/>
-      <c r="C23" s="3" t="s">
+    <row r="27" spans="2:7">
+      <c r="B27" s="10"/>
+      <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D27" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="3">
-        <f>SUM(E20:E22)</f>
+      <c r="E27" s="3">
+        <f>SUM(E24:E26)</f>
         <v>6382</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" ref="F23:G23" si="3">SUM(F20:F22)</f>
+      <c r="F27" s="3">
+        <f t="shared" ref="F27:G27" si="3">SUM(F24:F26)</f>
         <v>9613</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G27" s="3">
         <f t="shared" si="3"/>
         <v>11527</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="6" t="s">
+    <row r="29" spans="2:7">
+      <c r="B29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4">
+      <c r="D29" s="2"/>
+      <c r="E29" s="4">
         <v>1.589</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F29" s="4">
         <v>1.5960000000000001</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G29" s="4">
         <v>1.63</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="7"/>
-      <c r="C26" s="2" t="s">
+    <row r="30" spans="2:7">
+      <c r="B30" s="8"/>
+      <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4">
+      <c r="D30" s="2"/>
+      <c r="E30" s="4">
         <v>1.615</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F30" s="4">
         <v>1.585</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G30" s="4">
         <v>1.569</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="7"/>
-      <c r="C27" s="2" t="s">
+    <row r="31" spans="2:7">
+      <c r="B31" s="8"/>
+      <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4">
+      <c r="D31" s="2"/>
+      <c r="E31" s="4">
         <v>1.5589999999999999</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F31" s="4">
         <v>1.7310000000000001</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G31" s="4">
         <v>1.8440000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="8"/>
-      <c r="C28" s="3" t="s">
+    <row r="32" spans="2:7">
+      <c r="B32" s="9"/>
+      <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E28" s="5">
-        <f>AVERAGE(E25:E27)</f>
+      <c r="E32" s="5">
+        <f>AVERAGE(E29:E31)</f>
         <v>1.5876666666666666</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" ref="F28:G28" si="4">AVERAGE(F25:F27)</f>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32:G32" si="4">AVERAGE(F29:F31)</f>
         <v>1.6373333333333333</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G32" s="5">
         <f t="shared" si="4"/>
         <v>1.681</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="6" t="s">
+    <row r="34" spans="2:7">
+      <c r="B34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
         <v>0.19</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F34" s="2">
         <v>0.23599999999999999</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G34" s="2">
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="7"/>
-      <c r="C31" s="2" t="s">
+    <row r="35" spans="2:7">
+      <c r="B35" s="8"/>
+      <c r="C35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4">
+      <c r="D35" s="2"/>
+      <c r="E35" s="4">
         <v>0.125</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F35" s="4">
         <v>0.125</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G35" s="4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="7"/>
-      <c r="C32" s="2" t="s">
+    <row r="36" spans="2:7">
+      <c r="B36" s="8"/>
+      <c r="C36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4">
+      <c r="D36" s="2"/>
+      <c r="E36" s="4">
         <v>0.19800000000000001</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F36" s="4">
         <v>0.22</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G36" s="4">
         <v>0.245</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="8"/>
-      <c r="C33" s="3" t="s">
+    <row r="37" spans="2:7">
+      <c r="B37" s="9"/>
+      <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D37" s="3">
         <v>0</v>
       </c>
-      <c r="E33" s="5">
-        <f>AVERAGE(E30:E32)</f>
+      <c r="E37" s="5">
+        <f>AVERAGE(E34:E36)</f>
         <v>0.17100000000000001</v>
       </c>
-      <c r="F33" s="5">
-        <f t="shared" ref="F33:G33" si="5">AVERAGE(F30:F32)</f>
+      <c r="F37" s="5">
+        <f t="shared" ref="F37:G37" si="5">AVERAGE(F34:F36)</f>
         <v>0.19366666666666665</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G37" s="5">
         <f t="shared" si="5"/>
         <v>0.2213333333333333</v>
       </c>
     </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2.7730000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="8"/>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4">
+        <v>1.167</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1.167</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1.167</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="8"/>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4">
+        <v>1.696</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1.615</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="9"/>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <f>AVERAGE(E39:E41)</f>
+        <v>1.7063333333333333</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" ref="F42:G42" si="6">AVERAGE(F39:F41)</f>
+        <v>1.78</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="6"/>
+        <v>1.8516666666666668</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B30:B33"/>
+  <mergeCells count="7">
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B34:B37"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B24:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/doc/Metricas/Metricas.xlsx
+++ b/doc/Metricas/Metricas.xlsx
@@ -1311,15 +1311,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1340,16 +1340,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1371,15 +1371,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1401,13 +1401,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -1430,16 +1430,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1461,15 +1461,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1490,16 +1490,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1808,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/doc/Metricas/Metricas.xlsx
+++ b/doc/Metricas/Metricas.xlsx
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -177,6 +177,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -189,11 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,7 +238,7 @@
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -282,25 +283,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="161596544"/>
-        <c:axId val="161598080"/>
+        <c:axId val="70398720"/>
+        <c:axId val="70400256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161596544"/>
+        <c:axId val="70398720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161598080"/>
+        <c:crossAx val="70400256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161598080"/>
+        <c:axId val="70400256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -308,7 +309,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161596544"/>
+        <c:crossAx val="70398720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -321,7 +322,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -346,7 +347,7 @@
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -391,24 +392,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="157630464"/>
-        <c:axId val="157632000"/>
+        <c:axId val="70433024"/>
+        <c:axId val="70713344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157630464"/>
+        <c:axId val="70433024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157632000"/>
+        <c:crossAx val="70713344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157632000"/>
+        <c:axId val="70713344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +417,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157630464"/>
+        <c:crossAx val="70433024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -429,7 +430,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -478,7 +479,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$32:$G$32</c:f>
+              <c:f>Hoja1!$D$52:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -499,24 +500,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="157639808"/>
-        <c:axId val="157641344"/>
+        <c:axId val="70724992"/>
+        <c:axId val="70739072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157639808"/>
+        <c:axId val="70724992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157641344"/>
+        <c:crossAx val="70739072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157641344"/>
+        <c:axId val="70739072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,7 +525,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157639808"/>
+        <c:crossAx val="70724992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -537,7 +538,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -583,7 +584,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$27:$G$27</c:f>
+              <c:f>Hoja1!$D$42:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -631,7 +632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$22:$G$22</c:f>
+              <c:f>Hoja1!$D$37:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -652,24 +653,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="157649920"/>
-        <c:axId val="157651712"/>
+        <c:axId val="70768128"/>
+        <c:axId val="70769664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157649920"/>
+        <c:axId val="70768128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157651712"/>
+        <c:crossAx val="70769664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157651712"/>
+        <c:axId val="70769664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +678,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157649920"/>
+        <c:crossAx val="70768128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -690,7 +691,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -739,7 +740,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$37:$G$37</c:f>
+              <c:f>Hoja1!$D$57:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -760,24 +761,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="157667328"/>
-        <c:axId val="157668864"/>
+        <c:axId val="70793472"/>
+        <c:axId val="70799360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157667328"/>
+        <c:axId val="70793472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157668864"/>
+        <c:crossAx val="70799360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157668864"/>
+        <c:axId val="70799360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +786,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157667328"/>
+        <c:crossAx val="70793472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -798,270 +799,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-CL"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>NOC Movil</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$D$4:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>iteracion 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>iteracion 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>iteracion 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>119</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>NOC Web</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$D$4:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>iteracion 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>iteracion 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>iteracion 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>NOC EJB</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$D$4:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>iteracion 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>iteracion 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>iteracion 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$7:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>NOC</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$D$4:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inicio</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>iteracion 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>iteracion 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>iteracion 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$8:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>151</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="162498816"/>
-        <c:axId val="162505856"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="162498816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162505856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="162505856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162498816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:chart>
@@ -1104,7 +848,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$42:$G$42</c:f>
+              <c:f>Hoja1!$D$62:$G$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1125,24 +869,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="167096704"/>
-        <c:axId val="167099008"/>
+        <c:axId val="70811008"/>
+        <c:axId val="70829184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167096704"/>
+        <c:axId val="70811008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167099008"/>
+        <c:crossAx val="70829184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167099008"/>
+        <c:axId val="70829184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +894,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167096704"/>
+        <c:crossAx val="70811008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1163,13 +907,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:chart>
@@ -1187,7 +931,8 @@
             <c:v>Metodos por Clase</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1232,24 +977,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="167100416"/>
-        <c:axId val="167505920"/>
+        <c:axId val="70861568"/>
+        <c:axId val="70863104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167100416"/>
+        <c:axId val="70861568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167505920"/>
+        <c:crossAx val="70863104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167505920"/>
+        <c:axId val="70863104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1002,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167100416"/>
+        <c:crossAx val="70861568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1270,7 +1015,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1280,16 +1025,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1310,16 +1055,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1340,16 +1085,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1370,16 +1115,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1401,15 +1146,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1430,20 +1175,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="8 Gráfico"/>
+        <xdr:cNvPr id="10" name="9 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1460,46 +1205,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="9 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1512,7 +1227,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1806,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:G42"/>
+  <dimension ref="B4:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1820,7 +1535,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="15.75">
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1834,7 +1549,7 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1854,7 +1569,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="10"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1872,7 +1587,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="10"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1890,7 +1605,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="10"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1911,7 +1626,7 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1929,7 +1644,7 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="10"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1945,7 +1660,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="10"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1961,7 +1676,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="10"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1982,20 +1697,20 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="6" t="s">
@@ -2021,377 +1736,537 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
         <v>1431</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F34" s="2">
         <v>2613</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G34" s="2">
         <v>3360</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="10"/>
-      <c r="C20" s="2" t="s">
+    <row r="35" spans="2:7">
+      <c r="B35" s="13"/>
+      <c r="C35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
         <v>93</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F35" s="2">
         <v>159</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G35" s="2">
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="10"/>
-      <c r="C21" s="2" t="s">
+    <row r="36" spans="2:7">
+      <c r="B36" s="13"/>
+      <c r="C36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
         <v>653</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F36" s="2">
         <v>1040</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G36" s="2">
         <v>1320</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="10"/>
-      <c r="C22" s="3" t="s">
+    <row r="37" spans="2:7">
+      <c r="B37" s="13"/>
+      <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D37" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <f>SUM(E19:E21)</f>
+      <c r="E37" s="3">
+        <f>SUM(E34:E36)</f>
         <v>2177</v>
       </c>
-      <c r="F22" s="3">
-        <f t="shared" ref="F22" si="2">SUM(F19:F21)</f>
+      <c r="F37" s="3">
+        <f t="shared" ref="F37" si="2">SUM(F34:F36)</f>
         <v>3812</v>
       </c>
-      <c r="G22" s="3">
-        <f>SUM(G19:G21)</f>
+      <c r="G37" s="3">
+        <f>SUM(G34:G36)</f>
         <v>4894</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="10" t="s">
+    <row r="39" spans="2:7">
+      <c r="B39" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
         <v>4804</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F39" s="2">
         <v>7289</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G39" s="2">
         <v>8713</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="10"/>
-      <c r="C25" s="2" t="s">
+    <row r="40" spans="2:7">
+      <c r="B40" s="13"/>
+      <c r="C40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
         <v>346</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F40" s="2">
         <v>523</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G40" s="2">
         <v>637</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="10"/>
-      <c r="C26" s="2" t="s">
+    <row r="41" spans="2:7">
+      <c r="B41" s="13"/>
+      <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
         <v>1232</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F41" s="2">
         <v>1801</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G41" s="2">
         <v>2177</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="10"/>
-      <c r="C27" s="3" t="s">
+    <row r="42" spans="2:7">
+      <c r="B42" s="13"/>
+      <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E27" s="3">
-        <f>SUM(E24:E26)</f>
+      <c r="E42" s="3">
+        <f>SUM(E39:E41)</f>
         <v>6382</v>
       </c>
-      <c r="F27" s="3">
-        <f t="shared" ref="F27:G27" si="3">SUM(F24:F26)</f>
+      <c r="F42" s="3">
+        <f t="shared" ref="F42:G42" si="3">SUM(F39:F41)</f>
         <v>9613</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G42" s="3">
         <f t="shared" si="3"/>
         <v>11527</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="7" t="s">
+    <row r="43" spans="2:7">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4">
+      <c r="D49" s="2"/>
+      <c r="E49" s="4">
         <v>1.589</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F49" s="4">
         <v>1.5960000000000001</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G49" s="4">
         <v>1.63</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="8"/>
-      <c r="C30" s="2" t="s">
+    <row r="50" spans="2:7">
+      <c r="B50" s="11"/>
+      <c r="C50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4">
+      <c r="D50" s="2"/>
+      <c r="E50" s="4">
         <v>1.615</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F50" s="4">
         <v>1.585</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G50" s="4">
         <v>1.569</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="8"/>
-      <c r="C31" s="2" t="s">
+    <row r="51" spans="2:7">
+      <c r="B51" s="11"/>
+      <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4">
+      <c r="D51" s="2"/>
+      <c r="E51" s="4">
         <v>1.5589999999999999</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F51" s="4">
         <v>1.7310000000000001</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G51" s="4">
         <v>1.8440000000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="9"/>
-      <c r="C32" s="3" t="s">
+    <row r="52" spans="2:7">
+      <c r="B52" s="12"/>
+      <c r="C52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="5">
-        <f>AVERAGE(E29:E31)</f>
+      <c r="E52" s="5">
+        <f>AVERAGE(E49:E51)</f>
         <v>1.5876666666666666</v>
       </c>
-      <c r="F32" s="5">
-        <f t="shared" ref="F32:G32" si="4">AVERAGE(F29:F31)</f>
+      <c r="F52" s="5">
+        <f t="shared" ref="F52:G52" si="4">AVERAGE(F49:F51)</f>
         <v>1.6373333333333333</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G52" s="5">
         <f t="shared" si="4"/>
         <v>1.681</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="7" t="s">
+    <row r="54" spans="2:7">
+      <c r="B54" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
         <v>0.19</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F54" s="2">
         <v>0.23599999999999999</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G54" s="2">
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="8"/>
-      <c r="C35" s="2" t="s">
+    <row r="55" spans="2:7">
+      <c r="B55" s="11"/>
+      <c r="C55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4">
+      <c r="D55" s="2"/>
+      <c r="E55" s="4">
         <v>0.125</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F55" s="4">
         <v>0.125</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G55" s="4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="8"/>
-      <c r="C36" s="2" t="s">
+    <row r="56" spans="2:7">
+      <c r="B56" s="11"/>
+      <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4">
+      <c r="D56" s="2"/>
+      <c r="E56" s="4">
         <v>0.19800000000000001</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F56" s="4">
         <v>0.22</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G56" s="4">
         <v>0.245</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="9"/>
-      <c r="C37" s="3" t="s">
+    <row r="57" spans="2:7">
+      <c r="B57" s="12"/>
+      <c r="C57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E37" s="5">
-        <f>AVERAGE(E34:E36)</f>
+      <c r="E57" s="5">
+        <f>AVERAGE(E54:E56)</f>
         <v>0.17100000000000001</v>
       </c>
-      <c r="F37" s="5">
-        <f t="shared" ref="F37:G37" si="5">AVERAGE(F34:F36)</f>
+      <c r="F57" s="5">
+        <f t="shared" ref="F57:G57" si="5">AVERAGE(F54:F56)</f>
         <v>0.19366666666666665</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G57" s="5">
         <f t="shared" si="5"/>
         <v>0.2213333333333333</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="7" t="s">
+    <row r="59" spans="2:7">
+      <c r="B59" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4">
+      <c r="D59" s="2"/>
+      <c r="E59" s="4">
         <v>2.2559999999999998</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F59" s="4">
         <v>2.5329999999999999</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G59" s="4">
         <v>2.7730000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="8"/>
-      <c r="C40" s="2" t="s">
+    <row r="60" spans="2:7">
+      <c r="B60" s="11"/>
+      <c r="C60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4">
+      <c r="D60" s="2"/>
+      <c r="E60" s="4">
         <v>1.167</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F60" s="4">
         <v>1.167</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G60" s="4">
         <v>1.167</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="8"/>
-      <c r="C41" s="2" t="s">
+    <row r="61" spans="2:7">
+      <c r="B61" s="11"/>
+      <c r="C61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4">
+      <c r="D61" s="2"/>
+      <c r="E61" s="4">
         <v>1.696</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F61" s="4">
         <v>1.64</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G61" s="4">
         <v>1.615</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="9"/>
-      <c r="C42" s="3" t="s">
+    <row r="62" spans="2:7">
+      <c r="B62" s="12"/>
+      <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="5">
-        <f>AVERAGE(E39:E41)</f>
+      <c r="E62" s="5">
+        <f>AVERAGE(E59:E61)</f>
         <v>1.7063333333333333</v>
       </c>
-      <c r="F42" s="5">
-        <f t="shared" ref="F42:G42" si="6">AVERAGE(F39:F41)</f>
+      <c r="F62" s="5">
+        <f t="shared" ref="F62:G62" si="6">AVERAGE(F59:F61)</f>
         <v>1.78</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G62" s="5">
         <f t="shared" si="6"/>
         <v>1.8516666666666668</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B54:B57"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B39:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/doc/Metricas/Metricas.xlsx
+++ b/doc/Metricas/Metricas.xlsx
@@ -455,7 +455,7 @@
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -560,7 +560,7 @@
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -610,6 +610,10 @@
           <c:tx>
             <c:v>MLOC</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$D$4:$G$4</c:f>
@@ -716,7 +720,7 @@
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -824,7 +828,7 @@
           </c:tx>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1523,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/doc/Metricas/Metricas.xlsx
+++ b/doc/Metricas/Metricas.xlsx
@@ -7,19 +7,15 @@
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="DATOS Y METRICAS" sheetId="1" r:id="rId1"/>
+    <sheet name="RESUMEN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
-  <si>
-    <t>iteracion 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
   <si>
     <t>NOC Number of Classes</t>
   </si>
@@ -31,12 +27,6 @@
   </si>
   <si>
     <t>EJB</t>
-  </si>
-  <si>
-    <t>iteracion 2</t>
-  </si>
-  <si>
-    <t>iteracion 3</t>
   </si>
   <si>
     <t>Total</t>
@@ -64,6 +54,33 @@
   </si>
   <si>
     <t>Promedio de Métodos por clase</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Líneas de Código (TLOC)</t>
+  </si>
+  <si>
+    <t>Líneas de Código (MLOC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complejidad Ciclomática McCabe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profundidad del árbol de herencia </t>
+  </si>
+  <si>
+    <t>Métrica</t>
+  </si>
+  <si>
+    <t>Iteración 1</t>
+  </si>
+  <si>
+    <t>Iteración 2</t>
+  </si>
+  <si>
+    <t>Iteración 3</t>
   </si>
 </sst>
 </file>
@@ -95,12 +112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -167,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -182,6 +205,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -194,7 +221,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,27 +279,27 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$4:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>inicio</c:v>
+                  <c:v>Inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iteracion 1</c:v>
+                  <c:v>Iteración 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iteracion 2</c:v>
+                  <c:v>Iteración 2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iteracion 3</c:v>
+                  <c:v>Iteración 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$8:$G$8</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -283,25 +320,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70398720"/>
-        <c:axId val="70400256"/>
+        <c:axId val="37894016"/>
+        <c:axId val="37895552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70398720"/>
+        <c:axId val="37894016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70400256"/>
+        <c:crossAx val="37895552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70400256"/>
+        <c:axId val="37895552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -309,7 +346,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70398720"/>
+        <c:crossAx val="37894016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -322,7 +359,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -351,27 +388,27 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$4:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>inicio</c:v>
+                  <c:v>Inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iteracion 1</c:v>
+                  <c:v>Iteración 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iteracion 2</c:v>
+                  <c:v>Iteración 2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iteracion 3</c:v>
+                  <c:v>Iteración 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$13:$G$13</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$13:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -392,24 +429,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70433024"/>
-        <c:axId val="70713344"/>
+        <c:axId val="37980032"/>
+        <c:axId val="38199680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70433024"/>
+        <c:axId val="37980032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70713344"/>
+        <c:crossAx val="38199680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70713344"/>
+        <c:axId val="38199680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,7 +454,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70433024"/>
+        <c:crossAx val="37980032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -430,7 +467,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -441,6 +478,21 @@
   <c:lang val="es-CL"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Complejidad Ciclomática</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
     </c:title>
     <c:plotArea>
@@ -459,27 +511,27 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$4:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>inicio</c:v>
+                  <c:v>Inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iteracion 1</c:v>
+                  <c:v>Iteración 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iteracion 2</c:v>
+                  <c:v>Iteración 2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iteracion 3</c:v>
+                  <c:v>Iteración 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$52:$G$52</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$52:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -500,24 +552,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70724992"/>
-        <c:axId val="70739072"/>
+        <c:axId val="39057280"/>
+        <c:axId val="39058816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70724992"/>
+        <c:axId val="39057280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70739072"/>
+        <c:crossAx val="39058816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70739072"/>
+        <c:axId val="39058816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,20 +577,16 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70724992"/>
+        <c:crossAx val="39057280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -548,6 +596,29 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-CL"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Líneas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t> de Código</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -564,27 +635,27 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$4:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>inicio</c:v>
+                  <c:v>Inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iteracion 1</c:v>
+                  <c:v>Iteración 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iteracion 2</c:v>
+                  <c:v>Iteración 2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iteracion 3</c:v>
+                  <c:v>Iteración 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$42:$G$42</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$42:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -616,27 +687,27 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$4:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>inicio</c:v>
+                  <c:v>Inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iteracion 1</c:v>
+                  <c:v>Iteración 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iteracion 2</c:v>
+                  <c:v>Iteración 2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iteracion 3</c:v>
+                  <c:v>Iteración 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$37:$G$37</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$37:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -657,24 +728,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70768128"/>
-        <c:axId val="70769664"/>
+        <c:axId val="39673216"/>
+        <c:axId val="39675776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70768128"/>
+        <c:axId val="39673216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70769664"/>
+        <c:crossAx val="39675776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70769664"/>
+        <c:axId val="39675776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,7 +753,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70768128"/>
+        <c:crossAx val="39673216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -695,7 +766,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -724,27 +795,27 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$4:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>inicio</c:v>
+                  <c:v>Inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iteracion 1</c:v>
+                  <c:v>Iteración 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iteracion 2</c:v>
+                  <c:v>Iteración 2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iteracion 3</c:v>
+                  <c:v>Iteración 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$57:$G$57</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$57:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -765,24 +836,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70793472"/>
-        <c:axId val="70799360"/>
+        <c:axId val="39700352"/>
+        <c:axId val="62636032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70793472"/>
+        <c:axId val="39700352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70799360"/>
+        <c:crossAx val="62636032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70799360"/>
+        <c:axId val="62636032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,7 +861,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70793472"/>
+        <c:crossAx val="39700352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -803,7 +874,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -814,6 +885,22 @@
   <c:lang val="es-CL"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Profundidad del árbol de herencia </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
     </c:title>
     <c:plotArea>
@@ -832,27 +919,27 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$4:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>inicio</c:v>
+                  <c:v>Inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iteracion 1</c:v>
+                  <c:v>Iteración 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iteracion 2</c:v>
+                  <c:v>Iteración 2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iteracion 3</c:v>
+                  <c:v>Iteración 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$62:$G$62</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$62:$G$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -873,24 +960,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70811008"/>
-        <c:axId val="70829184"/>
+        <c:axId val="65432192"/>
+        <c:axId val="65659648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70811008"/>
+        <c:axId val="65432192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70829184"/>
+        <c:crossAx val="65659648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70829184"/>
+        <c:axId val="65659648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,20 +985,16 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70811008"/>
+        <c:crossAx val="65432192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -940,27 +1023,27 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$D$4:$G$4</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$4:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>inicio</c:v>
+                  <c:v>Inicio</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iteracion 1</c:v>
+                  <c:v>Iteración 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iteracion 2</c:v>
+                  <c:v>Iteración 2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>iteracion 3</c:v>
+                  <c:v>Iteración 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$16:$G$16</c:f>
+              <c:f>'DATOS Y METRICAS'!$D$16:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -981,24 +1064,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70861568"/>
-        <c:axId val="70863104"/>
+        <c:axId val="69823488"/>
+        <c:axId val="70419584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70861568"/>
+        <c:axId val="69823488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70863104"/>
+        <c:crossAx val="70419584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70863104"/>
+        <c:axId val="70419584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,20 +1089,16 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70861568"/>
+        <c:crossAx val="69823488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1036,9 +1115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1059,16 +1138,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1090,13 +1169,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1119,16 +1198,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1179,16 +1258,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1210,15 +1289,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1527,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1540,24 +1619,24 @@
   <sheetData>
     <row r="4" spans="2:7" ht="15.75">
       <c r="D4" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1573,9 +1652,9 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="13"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1591,9 +1670,9 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="13"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1609,9 +1688,9 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="13"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -1630,11 +1709,11 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="13" t="s">
-        <v>8</v>
+      <c r="B10" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
@@ -1648,9 +1727,9 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
@@ -1664,9 +1743,9 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="13"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
@@ -1680,9 +1759,9 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -1718,10 +1797,10 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -1743,113 +1822,113 @@
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="7"/>
@@ -1868,11 +1947,11 @@
       <c r="G32" s="8"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="13" t="s">
-        <v>10</v>
+      <c r="B34" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2">
@@ -1886,9 +1965,9 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="13"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2">
@@ -1902,9 +1981,9 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="13"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
@@ -1918,9 +1997,9 @@
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="13"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -1939,11 +2018,11 @@
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="13" t="s">
-        <v>11</v>
+      <c r="B39" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2">
@@ -1957,9 +2036,9 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="13"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2">
@@ -1973,9 +2052,9 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="13"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2">
@@ -1989,9 +2068,9 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="13"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -2050,11 +2129,11 @@
       <c r="G47" s="8"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="10" t="s">
-        <v>9</v>
+      <c r="B49" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="4">
@@ -2068,9 +2147,9 @@
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="11"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
@@ -2084,9 +2163,9 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="4">
@@ -2100,9 +2179,9 @@
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="12"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
@@ -2121,11 +2200,11 @@
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="10" t="s">
-        <v>13</v>
+      <c r="B54" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2">
@@ -2139,9 +2218,9 @@
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="11"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="4">
@@ -2155,9 +2234,9 @@
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="11"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="4">
@@ -2171,9 +2250,9 @@
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="12"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
@@ -2192,11 +2271,11 @@
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="10" t="s">
-        <v>14</v>
+      <c r="B59" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="4">
@@ -2210,9 +2289,9 @@
       </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="11"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="4">
@@ -2226,9 +2305,9 @@
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="11"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="4">
@@ -2242,9 +2321,9 @@
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="12"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
@@ -2280,25 +2359,596 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="15.75">
+      <c r="B3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" hidden="1">
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>78</v>
+      </c>
+      <c r="F4" s="2">
+        <v>107</v>
+      </c>
+      <c r="G4" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" hidden="1">
+      <c r="B5" s="15"/>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" hidden="1">
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" hidden="1">
+      <c r="B7" s="15"/>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f>SUM(E4:E6)</f>
+        <v>107</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:G7" si="0">SUM(F4:F6)</f>
+        <v>138</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" hidden="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" hidden="1">
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>174</v>
+      </c>
+      <c r="F9" s="2">
+        <v>311</v>
+      </c>
+      <c r="G9" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" hidden="1">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" hidden="1">
+      <c r="B11" s="15"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>114</v>
+      </c>
+      <c r="F11" s="2">
+        <v>152</v>
+      </c>
+      <c r="G11" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" hidden="1">
+      <c r="B12" s="15"/>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <f>E9+E10+E11</f>
+        <v>312</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:G12" si="1">F9+F10+F11</f>
+        <v>502</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" hidden="1">
+      <c r="B13" s="10"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" hidden="1">
+      <c r="B14" s="10"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <f>E12/E7</f>
+        <v>2.9158878504672896</v>
+      </c>
+      <c r="F15" s="16">
+        <f>F12/F7</f>
+        <v>3.63768115942029</v>
+      </c>
+      <c r="G15" s="16">
+        <f>G12/G7</f>
+        <v>4.072847682119205</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" hidden="1">
+      <c r="B16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="17">
+        <v>1431</v>
+      </c>
+      <c r="F16" s="17">
+        <v>2613</v>
+      </c>
+      <c r="G16" s="17">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" hidden="1">
+      <c r="B17" s="19"/>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="17">
+        <v>93</v>
+      </c>
+      <c r="F17" s="17">
+        <v>159</v>
+      </c>
+      <c r="G17" s="17">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" hidden="1">
+      <c r="B18" s="19"/>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="17">
+        <v>653</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1040</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="19"/>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <f>SUM(E16:E18)</f>
+        <v>2177</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" ref="F19" si="2">SUM(F16:F18)</f>
+        <v>3812</v>
+      </c>
+      <c r="G19" s="17">
+        <f>SUM(G16:G18)</f>
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" hidden="1">
+      <c r="B20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="17">
+        <v>4804</v>
+      </c>
+      <c r="F20" s="17">
+        <v>7289</v>
+      </c>
+      <c r="G20" s="17">
+        <v>8713</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" hidden="1">
+      <c r="B21" s="19"/>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="17">
+        <v>346</v>
+      </c>
+      <c r="F21" s="17">
+        <v>523</v>
+      </c>
+      <c r="G21" s="17">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="19"/>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="17">
+        <v>1232</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1801</v>
+      </c>
+      <c r="G22" s="17">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="19"/>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <f>SUM(E20:E22)</f>
+        <v>6382</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" ref="F23:G23" si="3">SUM(F20:F22)</f>
+        <v>9613</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="3"/>
+        <v>11527</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="16">
+        <v>1.589</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="19"/>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="16">
+        <v>1.615</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1.585</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1.569</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="19"/>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="16">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1.8440000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="19"/>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <f>AVERAGE(E24:E26)</f>
+        <v>1.5876666666666666</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" ref="F27:G27" si="4">AVERAGE(F24:F26)</f>
+        <v>1.6373333333333333</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="4"/>
+        <v>1.681</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="19"/>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="19"/>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="16">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="19"/>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <f>AVERAGE(E28:E30)</f>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F31" s="16">
+        <f t="shared" ref="F31:G31" si="5">AVERAGE(F28:F30)</f>
+        <v>0.19366666666666665</v>
+      </c>
+      <c r="G31" s="16">
+        <f t="shared" si="5"/>
+        <v>0.2213333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="16">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="F32" s="16">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="G32" s="16">
+        <v>2.7730000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="19"/>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="16">
+        <v>1.167</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1.167</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1.167</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="19"/>
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="16">
+        <v>1.696</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1.64</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1.615</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="19"/>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <f>AVERAGE(E32:E34)</f>
+        <v>1.7063333333333333</v>
+      </c>
+      <c r="F35" s="16">
+        <f t="shared" ref="F35:G35" si="6">AVERAGE(F32:F34)</f>
+        <v>1.78</v>
+      </c>
+      <c r="G35" s="16">
+        <f t="shared" si="6"/>
+        <v>1.8516666666666668</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
